--- a/Alex Code/Results/03042019/ExpLog.xlsx
+++ b/Alex Code/Results/03042019/ExpLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Documents\GitHub\ARMS\Alex Code\Results\03042019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0674D1B-097F-4723-9A20-89103D5820FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B82AD5F-BF1C-4666-B0C3-E48D6AB66C2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1656" yWindow="924" windowWidth="17280" windowHeight="8964" xr2:uid="{EC48ED26-35B8-4B02-97AB-6316AB7EB481}"/>
+    <workbookView xWindow="936" yWindow="3996" windowWidth="17280" windowHeight="8964" xr2:uid="{EC48ED26-35B8-4B02-97AB-6316AB7EB481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7A5AC9-A5C0-473C-AC68-9AA3E698FC96}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,6 +504,32 @@
         <v>0.94120000000000004</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
+      <c r="F4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.91180000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Alex Code/Results/03042019/ExpLog.xlsx
+++ b/Alex Code/Results/03042019/ExpLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Documents\GitHub\ARMS\Alex Code\Results\03042019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B82AD5F-BF1C-4666-B0C3-E48D6AB66C2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB223D3-9F41-4B5F-9900-9450323A9E64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="3996" windowWidth="17280" windowHeight="8964" xr2:uid="{EC48ED26-35B8-4B02-97AB-6316AB7EB481}"/>
+    <workbookView xWindow="-7416" yWindow="2340" windowWidth="17280" windowHeight="8964" xr2:uid="{EC48ED26-35B8-4B02-97AB-6316AB7EB481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,6 +110,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C5AD5A-380D-42A7-A5C9-5AFF6A10258E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7246620" y="365760"/>
+          <a:ext cx="1842655" cy="1120140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7A5AC9-A5C0-473C-AC68-9AA3E698FC96}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,12 +527,12 @@
         <v>0.82350000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -502,6 +551,9 @@
       </c>
       <c r="H3">
         <v>0.94120000000000004</v>
+      </c>
+      <c r="I3">
+        <v>0.79759999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -509,7 +561,7 @@
         <v>1000</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -528,9 +580,36 @@
       </c>
       <c r="H4">
         <v>0.91180000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>2000</v>
+      </c>
+      <c r="F5">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.88239999999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Alex Code/Results/03042019/ExpLog.xlsx
+++ b/Alex Code/Results/03042019/ExpLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Documents\GitHub\ARMS\Alex Code\Results\03042019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB223D3-9F41-4B5F-9900-9450323A9E64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237632CB-4410-4259-BF2A-079A60854422}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7416" yWindow="2340" windowWidth="17280" windowHeight="8964" xr2:uid="{EC48ED26-35B8-4B02-97AB-6316AB7EB481}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{EC48ED26-35B8-4B02-97AB-6316AB7EB481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Epochs</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Down-s Dropout</t>
+  </si>
+  <si>
+    <t>Seq-Pool Dropout</t>
   </si>
 </sst>
 </file>
@@ -93,8 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,55 +119,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>13855</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C5AD5A-380D-42A7-A5C9-5AFF6A10258E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7246620" y="365760"/>
-          <a:ext cx="1842655" cy="1120140"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,158 +418,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7A5AC9-A5C0-473C-AC68-9AA3E698FC96}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
         <v>500</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.82350000000000001</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.82350000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
       <c r="F3">
-        <v>0.98829999999999996</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>0.83950000000000002</v>
+        <v>1000</v>
       </c>
       <c r="H3">
-        <v>0.94120000000000004</v>
+        <v>0.99529999999999996</v>
       </c>
       <c r="I3">
-        <v>0.79759999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.80864000000000003</v>
+      </c>
+      <c r="J3">
+        <v>0.89710000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
         <v>2000</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.99299999999999999</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="J4">
+        <v>0.86760000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="J5">
+        <v>0.88239999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="J6">
+        <v>0.89710000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>800</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>2000</v>
+      </c>
+      <c r="H7">
+        <v>0.9859</v>
+      </c>
+      <c r="I7">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.88239999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>800</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="I8">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="J8">
+        <v>0.88229999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="I9">
         <v>0.85189999999999999</v>
       </c>
-      <c r="H4">
-        <v>0.91180000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1000</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>2000</v>
-      </c>
-      <c r="F5">
-        <v>0.99770000000000003</v>
-      </c>
-      <c r="G5">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="H5">
+      <c r="J9">
         <v>0.88239999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.88239999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>800</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="J12">
+        <v>0.83819999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>800</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="I13">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="J13">
+        <v>0.85289999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Alex Code/Results/03042019/ExpLog.xlsx
+++ b/Alex Code/Results/03042019/ExpLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Documents\GitHub\ARMS\Alex Code\Results\03042019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237632CB-4410-4259-BF2A-079A60854422}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B042A8E7-562F-4D05-B638-EAD920C3DC80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{EC48ED26-35B8-4B02-97AB-6316AB7EB481}"/>
+    <workbookView xWindow="-5376" yWindow="948" windowWidth="17280" windowHeight="8568" xr2:uid="{EC48ED26-35B8-4B02-97AB-6316AB7EB481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,6 +119,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>413360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1440179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1A75FF-8C1E-4355-9855-E91B377EBA9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8465819" y="3642360"/>
+          <a:ext cx="2242161" cy="1440179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7A5AC9-A5C0-473C-AC68-9AA3E698FC96}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,14 +877,85 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>800</v>
+      </c>
       <c r="B14">
         <v>0.3</v>
       </c>
       <c r="C14">
         <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="J14">
+        <v>0.91180000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.82720000000000005</v>
+      </c>
+      <c r="J15">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>800</v>
+      </c>
+      <c r="B16">
+        <v>0.3</v>
+      </c>
+      <c r="C16">
+        <v>0.3</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+      <c r="H16">
+        <v>0.8972</v>
+      </c>
+      <c r="I16">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="J16">
+        <v>0.82350000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Alex Code/Results/03042019/ExpLog.xlsx
+++ b/Alex Code/Results/03042019/ExpLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Documents\GitHub\ARMS\Alex Code\Results\03042019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B042A8E7-562F-4D05-B638-EAD920C3DC80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7259310B-C0CA-420A-BB31-22F11CF23B1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5376" yWindow="948" windowWidth="17280" windowHeight="8568" xr2:uid="{EC48ED26-35B8-4B02-97AB-6316AB7EB481}"/>
+    <workbookView xWindow="936" yWindow="948" windowWidth="17280" windowHeight="8568" xr2:uid="{EC48ED26-35B8-4B02-97AB-6316AB7EB481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7A5AC9-A5C0-473C-AC68-9AA3E698FC96}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Alex Code/Results/03042019/ExpLog.xlsx
+++ b/Alex Code/Results/03042019/ExpLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Documents\GitHub\ARMS\Alex Code\Results\03042019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7259310B-C0CA-420A-BB31-22F11CF23B1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC501441-F669-433F-80CD-5E98C2755159}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="948" windowWidth="17280" windowHeight="8568" xr2:uid="{EC48ED26-35B8-4B02-97AB-6316AB7EB481}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{EC48ED26-35B8-4B02-97AB-6316AB7EB481}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,16 +125,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30479</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>413360</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1440179</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>244886</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -157,8 +157,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8465819" y="3642360"/>
-          <a:ext cx="2242161" cy="1440179"/>
+          <a:off x="8496299" y="3649980"/>
+          <a:ext cx="3262407" cy="2095500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7A5AC9-A5C0-473C-AC68-9AA3E698FC96}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
